--- a/Branches/Malwares.xlsx
+++ b/Branches/Malwares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\portifolioDoMaia\Branches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F447B-F9F3-418B-A19E-F2C5EBE4DF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BAAB8-1059-485B-9FB5-46A6BB4112D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId27"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Malwares!$D$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Malwares!$D$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="769">
   <si>
     <t>Tipo - EN</t>
   </si>
@@ -2388,6 +2388,12 @@
       </rPr>
       <t>: portugues, o que ele siguinifica, diga o que ele faz, diga se ele é um Tipo de Malware ou um tipo de Spayware, seu publico alvo, estratégias de ataque,</t>
     </r>
+  </si>
+  <si>
+    <t>pessoas que usam o sistema de pagamentos instantâneos PIX</t>
+  </si>
+  <si>
+    <t>https://bard.google.com/chat/533a40278feb4892</t>
   </si>
 </sst>
 </file>
@@ -2446,7 +2452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2459,8 +2465,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2468,11 +2486,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2480,19 +2543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2500,6 +2551,47 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2783,20 +2875,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1102CB96-9802-4B7F-9BD4-80663906F6E7}">
   <dimension ref="D1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozenSplit"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="52" customWidth="1"/>
+    <col min="4" max="4" width="21" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="52" style="9" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="15.7265625" customWidth="1"/>
     <col min="9" max="9" width="12.81640625" customWidth="1"/>
@@ -2805,402 +2897,483 @@
     <col min="12" max="12" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" s="9" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="4:10" s="5" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="4:10" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="4:10" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="4:10" s="4" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="4" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="4:10" s="3" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="4" t="s">
+    <row r="5" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="4" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="4" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="4" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="4" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="4" t="s">
+    <row r="17" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="4" t="s">
+    <row r="18" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="3" t="s">
+    <row r="19" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="4" t="s">
+    <row r="22" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="4" t="s">
+    <row r="23" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="4" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="G24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="4" t="s">
+    <row r="25" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="4" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="4" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="4" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="4" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="4:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="4" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="4:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="4:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="9" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="9" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
+      <c r="E36" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="9" t="s">
         <v>766</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:J1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="D1:J18" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3211,13 +3384,13 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A34"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>512</v>
       </c>
     </row>
@@ -3396,13 +3569,13 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3576,13 +3749,13 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A31"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>452</v>
       </c>
     </row>
@@ -3746,13 +3919,13 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>427</v>
       </c>
     </row>
@@ -3896,13 +4069,13 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A32"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4071,13 +4244,13 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4226,13 +4399,13 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4376,13 +4549,13 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4526,13 +4699,13 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4676,13 +4849,13 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4841,13 +5014,13 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A36"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>728</v>
       </c>
     </row>
@@ -5036,13 +5209,13 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5146,13 +5319,13 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5261,7 +5434,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A26"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5406,7 +5579,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5596,7 +5769,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A24"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5731,7 +5904,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A24"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5866,7 +6039,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A24"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6001,7 +6174,7 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A27"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6151,13 +6324,13 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>728</v>
       </c>
     </row>
@@ -6321,13 +6494,13 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A36"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>694</v>
       </c>
     </row>
@@ -6516,13 +6689,13 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A30"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>666</v>
       </c>
     </row>
@@ -6681,13 +6854,13 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A35"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>632</v>
       </c>
     </row>
@@ -6871,13 +7044,13 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>603</v>
       </c>
     </row>
@@ -7036,13 +7209,13 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>576</v>
       </c>
     </row>
@@ -7196,13 +7369,13 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A34"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>544</v>
       </c>
     </row>
